--- a/shelf_optimization_results.xlsx
+++ b/shelf_optimization_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,40 +457,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Perishable</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>High Demand</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Hazardous</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Promotional</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>High Value</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Bulky</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Assigned Shelf</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Shelf Capacity (kg)</t>
         </is>
@@ -515,21 +520,19 @@
           <t>Dairy</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>No</t>
@@ -547,10 +550,15 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Refrigerator Zone</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -566,17 +574,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Grains</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E3" t="n">
+        <v>15.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -600,15 +606,20 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Lower Shelf</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -631,16 +642,14 @@
           <t>Frozen</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -663,10 +672,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>Refrigerator Zone</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -689,21 +703,19 @@
           <t>Breakfast</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E5" t="n">
+        <v>4.99</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>No</t>
@@ -721,10 +733,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Eye-Level Shelf</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>15</v>
       </c>
     </row>
@@ -747,10 +764,8 @@
           <t>Grains</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E6" t="n">
+        <v>2.99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -779,11 +794,16 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>General Aisle Shelf</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Lower Shelf</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -805,10 +825,8 @@
           <t>Condiments</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E7" t="n">
+        <v>3.99</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -837,11 +855,16 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>General Aisle Shelf</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>20</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Lower Shelf</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -863,10 +886,8 @@
           <t>Cleaning</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E8" t="n">
+        <v>9.99</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -875,14 +896,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>No</t>
@@ -895,10 +916,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>Hazardous Item Zone</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -921,10 +947,8 @@
           <t>Cleaning</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="E9" t="n">
+        <v>6.99</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -933,14 +957,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>No</t>
@@ -953,11 +977,260 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Hazardous Item Zone</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Drain Cleaner</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Hazardous Item Zone</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chips</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Checkout Display</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dairy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Refrigerator Zone</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Luxury Perfume</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Secure Shelf</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,6 +1278,16 @@
           <t>Utilization (%)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Products</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Categories</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1021,10 +1304,18 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1042,94 +1333,159 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Grains, Condiments</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eye-Level Shelf</t>
+          <t>Secure Shelf</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>General Aisle Shelf</t>
+          <t>Eye-Level Shelf</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Refrigerator Zone</t>
+          <t>General Aisle Shelf</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Refrigerator Zone</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Frozen, Dairy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hazardous Item Zone</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>90</v>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/shelf_optimization_results.xlsx
+++ b/shelf_optimization_results.xlsx
@@ -799,11 +799,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Lower Shelf</t>
+          <t>Checkout Display</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -860,11 +860,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Lower Shelf</t>
+          <t>Checkout Display</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Checkout Display</t>
+          <t>Eye-Level Shelf</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1304,17 +1304,17 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Snacks</t>
+          <t>Grains, Condiments</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Grains, Condiments</t>
+          <t>Grains</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Breakfast</t>
+          <t>Snacks, Breakfast</t>
         </is>
       </c>
     </row>

--- a/shelf_optimization_results.xlsx
+++ b/shelf_optimization_results.xlsx
@@ -799,11 +799,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Checkout Display</t>
+          <t>Lower Shelf</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -860,11 +860,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Checkout Display</t>
+          <t>Lower Shelf</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Eye-Level Shelf</t>
+          <t>Checkout Display</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1304,17 +1304,17 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Grains, Condiments</t>
+          <t>Snacks</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Grains</t>
+          <t>Grains, Condiments</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Snacks, Breakfast</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
